--- a/results/times_for_epochs.xlsx
+++ b/results/times_for_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F0993BF-8C77-447C-9B33-B586C18DBB5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB739D-B249-48E0-BE48-FC7B38BC003D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{96F7838B-EA7F-42D5-9154-2365C06AA969}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{96F7838B-EA7F-42D5-9154-2365C06AA969}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>epochs</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>ml.p2.xlarge</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>other tasks runninng?</t>
   </si>
 </sst>
 </file>
@@ -418,18 +427,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F224BA-C262-43E3-89A0-C78020C0D72F}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -440,16 +451,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,17 +476,20 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,17 +499,17 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -499,17 +519,17 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -519,17 +539,17 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -539,17 +559,17 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -559,17 +579,17 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -579,17 +599,17 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -599,17 +619,17 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,17 +639,17 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -639,17 +659,17 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -659,17 +679,17 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
       <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -679,17 +699,17 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
@@ -699,17 +719,17 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
@@ -719,17 +739,17 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
       <c r="E16">
         <v>100</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -739,17 +759,17 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
       <c r="E17">
         <v>100</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
@@ -759,17 +779,17 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
       <c r="E18">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
@@ -779,17 +799,17 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
       <c r="E19">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -799,17 +819,17 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
       <c r="E20">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
@@ -819,17 +839,17 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
       <c r="E21">
         <v>100</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10</v>
       </c>
@@ -839,13 +859,13 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
       <c r="E22">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
         <v>8</v>
       </c>
     </row>
